--- a/document/testcase.xlsx
+++ b/document/testcase.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\13_03_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886FC73C-63C4-4DC5-B756-CC9B288838B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3376F9E6-B1C1-4499-B899-1FFE81E45BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6432" yWindow="1044" windowWidth="16044" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="regist.php" sheetId="1" r:id="rId1"/>
+    <sheet name="regist_confirm.php" sheetId="3" r:id="rId2"/>
+    <sheet name="regist_complete.php" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="97">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -280,13 +282,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>男</t>
-    <rPh sb="0" eb="1">
-      <t>オトコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ひらがな、漢字以外を入力</t>
     <rPh sb="5" eb="7">
       <t>カンジ</t>
@@ -384,13 +379,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一般</t>
-    <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力チェック</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -414,6 +402,232 @@
   </si>
   <si>
     <t>アカウント登録確認画面に遷移</t>
+  </si>
+  <si>
+    <t>男が選択されている</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般が選択されている</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面（/regist_confirm.php）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示を確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の入力値をテキスト表示</t>
+  </si>
+  <si>
+    <t>アカウント登録画面の選択肢をテキスト表示</t>
+    <rPh sb="10" eb="13">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の入力値を●で表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録処理</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面に遷移</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB登録時にエラーが発生する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録できません。」とエラーメッセージを赤字で表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前に戻る</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「前に戻る」ボタン押下</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面（/regist_complete.php）</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示画面の確認</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録完了しました」画面中央に大きくテキスト表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「TOPページへ戻る」を押下</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D.IブログのTOPページに遷移</t>
+  </si>
+  <si>
+    <t>TOPページへ戻る</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移を確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面に遷移</t>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面の各項目に入力値が表示されている</t>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが0件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが発生</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面に「エラーが発生したためアカウント登録できません。」とエラーメッセージを赤字で表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角数字以外を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -545,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -555,9 +769,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -579,6 +790,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -861,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -874,13 +1094,12 @@
     <col min="3" max="3" width="27.69921875" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.59765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="27.69921875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="2"/>
+    <col min="6" max="8" width="8.69921875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="27.69921875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36">
+    <row r="1" spans="1:10" ht="36">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -891,11 +1110,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -914,20 +1133,23 @@
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6">
+    <row r="4" spans="1:10">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -940,13 +1162,14 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -959,13 +1182,14 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -978,13 +1202,14 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -997,13 +1222,14 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1016,13 +1242,14 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1035,32 +1262,34 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1073,14 +1302,15 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
+      <c r="B12" s="9"/>
+      <c r="C12" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -1092,14 +1322,15 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7" t="s">
-        <v>28</v>
+      <c r="B13" s="9"/>
+      <c r="C13" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -1111,13 +1342,14 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1130,34 +1362,36 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1170,15 +1404,16 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>53</v>
@@ -1187,13 +1422,14 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1206,15 +1442,16 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>53</v>
@@ -1223,13 +1460,14 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1242,15 +1480,16 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>53</v>
@@ -1259,13 +1498,14 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1278,15 +1518,16 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>53</v>
@@ -1295,17 +1536,18 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>53</v>
@@ -1314,15 +1556,16 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="54">
-      <c r="A25" s="6">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="36">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>53</v>
@@ -1331,13 +1574,14 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1350,15 +1594,16 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="6">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>53</v>
@@ -1367,13 +1612,14 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1386,15 +1632,16 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="3" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>53</v>
@@ -1403,17 +1650,18 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="6">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12" t="s">
-        <v>59</v>
+      <c r="B30" s="9"/>
+      <c r="C30" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>53</v>
@@ -1422,15 +1670,16 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" ht="36">
-      <c r="A31" s="6">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="36">
+      <c r="A31" s="5">
         <v>28</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>53</v>
@@ -1439,46 +1688,49 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" ht="36">
-      <c r="A32" s="6">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="36">
+      <c r="A32" s="5">
         <v>29</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="E32" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="6">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="C34" s="4"/>
     </row>
   </sheetData>
@@ -1489,6 +1741,569 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402E0781-BB5E-4945-B6E3-AA9CFF3D87CD}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="2" max="2" width="11.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.69921875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="8.69921875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="27.69921875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="36">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="36">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="36">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="36">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="36">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="36">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="36">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="36">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="36">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="36">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="36">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="36">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="54">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="36">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FFBADC-7FB8-4DE4-BC17-5F8424E6D900}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="2" max="2" width="11.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.69921875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="8.69921875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="27.69921875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="36">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="54">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AE605C-5BCD-4E4B-9361-678F39D538C6}">
   <dimension ref="A1:B22"/>
   <sheetViews>

--- a/document/testcase.xlsx
+++ b/document/testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\13_03_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3376F9E6-B1C1-4499-B899-1FFE81E45BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC880E7F-8D5C-4281-9194-B915981641CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6432" yWindow="1044" windowWidth="16044" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regist.php" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="166">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -483,14 +483,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DB登録時にエラーが発生する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「エラーが発生したためアカウント登録できません。」とエラーメッセージを赤字で表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>前に戻る</t>
     <rPh sb="0" eb="1">
       <t>マエ</t>
@@ -626,6 +618,482 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１0文字以内で入力</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな、漢字を入力</t>
+    <rPh sb="5" eb="7">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カタカナを入力</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１00文字以内で入力</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7文字以内で入力</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8文字入力</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）を入力</t>
+    <rPh sb="5" eb="7">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力できる</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認するボタンを押すと「指定されている形式で入力してください。」というポップアップがでる</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認するボタンを押すと「メールアドレスに「＠」を挿入してください。「入力値」内に「＠」がありません。」というポップアップがでる</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースの確認</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID　　　　　　　←カラム名「</t>
+  </si>
+  <si>
+    <t>名前（姓）　　　←カラム名</t>
+  </si>
+  <si>
+    <t>名前（名）　　　←カラム名</t>
+  </si>
+  <si>
+    <t>カナ（姓）　　　←カラム名</t>
+  </si>
+  <si>
+    <t>カナ（名）　　　←カラム名</t>
+  </si>
+  <si>
+    <t>メールアドレス　←カラム名</t>
+  </si>
+  <si>
+    <t>パスワード　　　←カラム名</t>
+  </si>
+  <si>
+    <t>性別　　　　　　←カラム名</t>
+  </si>
+  <si>
+    <t>郵便番号　　　　←カラム名</t>
+  </si>
+  <si>
+    <t>住所（都道府県）←カラム名</t>
+  </si>
+  <si>
+    <t>住所（市区町村）←カラム名</t>
+  </si>
+  <si>
+    <t>住所（番地）　　←カラム名</t>
+  </si>
+  <si>
+    <t>アカウント権限　←カラム名</t>
+  </si>
+  <si>
+    <t>削除フラグ　　　←カラム名</t>
+  </si>
+  <si>
+    <t>登録日時　　　　←カラム名</t>
+  </si>
+  <si>
+    <t>更新日時　　　　←カラム名</t>
+  </si>
+  <si>
+    <t>データ型「int(100)」</t>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>自動採番</t>
+  </si>
+  <si>
+    <t>「family_name」</t>
+  </si>
+  <si>
+    <t>データ型「varchar(100)」</t>
+  </si>
+  <si>
+    <t>「last_name」</t>
+  </si>
+  <si>
+    <t>「family_name_kana」</t>
+  </si>
+  <si>
+    <t>「last_name_kana」</t>
+  </si>
+  <si>
+    <t>「mail」</t>
+  </si>
+  <si>
+    <t>データ型「varchar(255)」</t>
+  </si>
+  <si>
+    <t>「password」</t>
+  </si>
+  <si>
+    <t>「gender」</t>
+  </si>
+  <si>
+    <t>データ型「int(1)」</t>
+  </si>
+  <si>
+    <t>パラメータが0の場合は「男」で1の場合は「女」とする</t>
+  </si>
+  <si>
+    <t>「postal_code」</t>
+  </si>
+  <si>
+    <t>データ型「int(7)」</t>
+  </si>
+  <si>
+    <t>「prefecture」</t>
+  </si>
+  <si>
+    <t>「address_1」</t>
+  </si>
+  <si>
+    <t>「address_2」</t>
+  </si>
+  <si>
+    <t>「authority」</t>
+  </si>
+  <si>
+    <t>パラメータが0の場合は「一般」で1の場合は「管理者」とする</t>
+  </si>
+  <si>
+    <t>「delete_flag」</t>
+  </si>
+  <si>
+    <t>パラメータが0の場合は「有効」で1の場合は「無効」とする</t>
+  </si>
+  <si>
+    <t>「registered_time」</t>
+  </si>
+  <si>
+    <t>データ型「datetime」</t>
+  </si>
+  <si>
+    <t>「update_time」</t>
+  </si>
+  <si>
+    <t>「id」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost/phpmyadmin/index.php?route=/sql&amp;pos=0&amp;db=practice&amp;table=login_user_transaction　にアクセスし、以下の項目を確認する</t>
+    <rPh sb="109" eb="111">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１０文字以内でひらがな、漢字のみが登録されている</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化されている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１０文字以内でカタカナのみが登録されている</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１００文字以内で、半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみのメールアドレスが登録されている</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「0」か「1」が登録されている</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７文字以内で半角数字のみが登録されている</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４７都道府県が登録されている</t>
+    <rPh sb="2" eb="6">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１０文字以内でひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみで登録されている</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１0０文字以内で入力</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１００文字以内でひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみで登録されている</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時が登録されている</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時が登録されている</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -634,7 +1102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +1117,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -658,7 +1134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -755,11 +1231,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -801,8 +1309,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1081,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1133,7 +1660,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>5</v>
@@ -1395,10 +1922,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1411,12 +1938,12 @@
         <v>14</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1429,9 +1956,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="C18" s="15"/>
       <c r="D18" s="3" t="s">
         <v>52</v>
       </c>
@@ -1444,7 +1969,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="54">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1454,7 +1979,7 @@
         <v>54</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1468,13 +1993,13 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1487,12 +2012,12 @@
         <v>18</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1505,9 +2030,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="C22" s="15"/>
       <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
@@ -1520,17 +2043,17 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="54">
       <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1544,13 +2067,13 @@
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1558,17 +2081,17 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="36">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>22</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1581,9 +2104,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
@@ -1596,17 +2117,17 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="54">
       <c r="A27" s="5">
         <v>24</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1620,13 +2141,13 @@
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1639,12 +2160,12 @@
         <v>26</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1657,11 +2178,9 @@
         <v>27</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>53</v>
@@ -1672,17 +2191,17 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="36">
+    <row r="31" spans="1:10" ht="54">
       <c r="A31" s="5">
         <v>28</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1690,21 +2209,19 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="36">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>29</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="11" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1712,17 +2229,17 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="36">
       <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="3" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1731,7 +2248,379 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="C34" s="4"/>
+      <c r="A34" s="5">
+        <v>31</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="90">
+      <c r="A35" s="5">
+        <v>32</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="5">
+        <v>33</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="5">
+        <v>34</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="5">
+        <v>35</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="54">
+      <c r="A39" s="5">
+        <v>36</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="5">
+        <v>37</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="5">
+        <v>38</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="5">
+        <v>39</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="54">
+      <c r="A43" s="5">
+        <v>40</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="5">
+        <v>41</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="36">
+      <c r="A45" s="5">
+        <v>42</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="5">
+        <v>43</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="54">
+      <c r="A47" s="5">
+        <v>44</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="5">
+        <v>45</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" ht="36">
+      <c r="A49" s="5">
+        <v>46</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="5">
+        <v>47</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" ht="54">
+      <c r="A51" s="5">
+        <v>48</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" ht="36">
+      <c r="A52" s="5">
+        <v>49</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="5">
+        <v>50</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="C54" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1742,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402E0781-BB5E-4945-B6E3-AA9CFF3D87CD}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1794,7 +2683,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>5</v>
@@ -2056,7 +2945,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>77</v>
@@ -2067,17 +2956,21 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="54">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2085,45 +2978,23 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="36">
       <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>81</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="36">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2134,10 +3005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FFBADC-7FB8-4DE4-BC17-5F8424E6D900}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2160,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2186,7 +3057,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>5</v>
@@ -2203,13 +3074,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2224,10 +3095,10 @@
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2239,17 +3110,17 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2257,58 +3128,351 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12" s="4"/>
+    <row r="7" spans="1:10" ht="72">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="36">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="36">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="36">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="36">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="72">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="C13" s="4"/>
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="C15" s="4"/>
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="36">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="4"/>
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="72">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="72">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="E26" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{91D9DA32-5E64-4C30-9AC9-341ACAEAB429}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AE605C-5BCD-4E4B-9361-678F39D538C6}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2433,7 +3597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -2441,7 +3605,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -2449,7 +3613,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2457,7 +3621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -2465,7 +3629,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -2473,12 +3637,203 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
